--- a/election_votar_data/LOHAGARA/AMIRABAD/152588/152588_com_1502_male_without_photo_85_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152588/152588_com_1502_male_without_photo_85_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="42.5" customWidth="1" min="4" max="4"/>
     <col width="40.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="47.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০৯/০৪/১৯৯৫</t>
+          <t>দার্জি</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -32319,7 +32319,7 @@
       </c>
       <c r="F759" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী জন্ম তারিখ:২৭/০৮/১৯৯৮</t>
+          <t>ছাত্র/ছাত্</t>
         </is>
       </c>
       <c r="G759" s="3" t="inlineStr">
@@ -44499,7 +44499,7 @@
       </c>
       <c r="F1049" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০১/০১/১৯৬৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1049" s="3" t="inlineStr">
@@ -45213,7 +45213,7 @@
       </c>
       <c r="F1066" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০১/০৩/১৯৬৫</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1066" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/AMIRABAD/152588/152588_com_1502_male_without_photo_85_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152588/152588_com_1502_male_without_photo_85_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="42.5" customWidth="1" min="4" max="4"/>
     <col width="40.5" customWidth="1" min="5" max="5"/>
-    <col width="47.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>দার্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০৯/০৪/১৯৯৫</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -32319,7 +32319,7 @@
       </c>
       <c r="F759" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্</t>
+          <t>ছাত্র/ছাত্রী জন্ম তারিখ:২৭/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="G759" s="3" t="inlineStr">
@@ -44499,7 +44499,7 @@
       </c>
       <c r="F1049" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/০১/১৯৬৫</t>
         </is>
       </c>
       <c r="G1049" s="3" t="inlineStr">
@@ -45213,7 +45213,7 @@
       </c>
       <c r="F1066" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০১/০৩/১৯৬৫</t>
         </is>
       </c>
       <c r="G1066" s="3" t="inlineStr">
